--- a/bug_report.xlsx
+++ b/bug_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CloneGit\Task_bug_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iryna_Orlivska\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5655E8F6-155C-48F5-9B8A-0C98A01245B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718F3421-1CBB-45F2-9A5A-9988DE8386CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{544896CE-C548-43CB-A391-847B6D88F2A3}"/>
+    <workbookView xWindow="3645" yWindow="930" windowWidth="21600" windowHeight="14040" xr2:uid="{544896CE-C548-43CB-A391-847B6D88F2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug report" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>BugID</t>
   </si>
@@ -168,7 +168,13 @@
     <t>1. Add to list records/open file  2. Choose symbols "Numeric"                 3. Choose range "All"                 4. Choose sort order "Ascending"                                       5. View list</t>
   </si>
   <si>
-    <t>1. Add to list records/open file     2. Choose symbols "Alphabetic"             3. Choose range "All"                 4. Choose sort order "Descending"                                    5. View list</t>
+    <t>1. Add to list records/open file     2. Choose symbols "Alphabetic"                        3. Choose range "All"                 4. Choose sort order "Descending"                                    5. View list</t>
+  </si>
+  <si>
+    <t>нет выбора на создания папки</t>
+  </si>
+  <si>
+    <t>опечатка</t>
   </si>
 </sst>
 </file>
@@ -215,7 +221,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -235,22 +241,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1064558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>3009569</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2278380</xdr:rowOff>
+      <xdr:colOff>4011706</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3430935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
+        <xdr:cNvPr id="16" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080FEC53-400E-4CDA-B118-94B4C0D4D185}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E019D34-8A8B-42BD-B578-24515EA438AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -266,8 +272,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12473940" y="289560"/>
-          <a:ext cx="2933369" cy="2171700"/>
+          <a:off x="14455588" y="10914529"/>
+          <a:ext cx="3944471" cy="2366377"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -278,23 +284,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>106681</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>182879</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2900174</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2331720</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>968030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525AAC2E-22F7-4CB6-B081-718CB3386019}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E5BE9E-BE98-49CE-BDCF-096B0E941952}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -302,16 +308,63 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="31437" t="28217" r="42517" b="48142"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14660881" y="2956559"/>
-          <a:ext cx="2793493" cy="2148841"/>
+          <a:off x="21459265" y="16719177"/>
+          <a:ext cx="4112559" cy="2099824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>347381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4101354</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2942712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51A7518-E617-46E0-BBB7-3D614FCD3068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="36892" t="26801" r="36941" b="42149"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14601265" y="16719175"/>
+          <a:ext cx="3888442" cy="2595331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -323,66 +376,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>144781</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>91441</xdr:rowOff>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2926080</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2236495</xdr:rowOff>
+      <xdr:colOff>2228051</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1051007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Рисунок 12">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31BF4671-A91C-490B-94BF-2C2ED941B67E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14866621" y="5394961"/>
-          <a:ext cx="2781299" cy="2145054"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>215154</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>4264858</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2537014</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Рисунок 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92531675-FFA2-4DC8-9949-797C3099CF0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CB48F4-AF12-47BF-A1A9-C8C7CA0467F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -398,8 +407,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14908306" y="7790330"/>
-          <a:ext cx="4076599" cy="2321860"/>
+          <a:off x="14702118" y="19733559"/>
+          <a:ext cx="1914286" cy="838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -411,22 +420,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>340659</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2740659</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>862193</xdr:rowOff>
+      <xdr:colOff>3757451</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1828026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 19">
+        <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3AEFB9-E874-4534-A7E1-A97FCE413DCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE92AEB-C566-4011-8228-D6C150D8F13F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -442,8 +451,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15060706" y="10506635"/>
-          <a:ext cx="2400000" cy="790476"/>
+          <a:off x="14612471" y="313764"/>
+          <a:ext cx="3533333" cy="1704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -455,22 +464,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>941294</xdr:rowOff>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>4265593</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3392757</xdr:rowOff>
+      <xdr:colOff>3216089</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2315385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 17">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E019D34-8A8B-42BD-B578-24515EA438AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67200C0B-81A1-402D-93EC-536A2B5E4B8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -486,8 +495,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14899341" y="11376212"/>
-          <a:ext cx="4086299" cy="2451463"/>
+          <a:off x="14612471" y="2308412"/>
+          <a:ext cx="2991971" cy="2203326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -499,22 +508,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>206189</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>4150659</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2349305</xdr:rowOff>
+      <xdr:colOff>3160058</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2186494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A512FAB2-88A0-4190-975A-367F4F9F8463}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6F2A9E-359A-46FB-BFB4-C4ED84426AE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -522,15 +531,280 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="-624"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14926236" y="14047695"/>
-          <a:ext cx="3944470" cy="2232763"/>
+          <a:off x="14612470" y="4818529"/>
+          <a:ext cx="2935941" cy="2085641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>246529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4024092</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2386852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BC9507-7708-4F52-9EE5-DA2D227C6360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14567647" y="7239000"/>
+          <a:ext cx="3844798" cy="2140323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2409264</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1042453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF54919-E09E-42AD-B86F-7644C1A43D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14612470" y="9962030"/>
+          <a:ext cx="2185147" cy="930394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2201161</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1551836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFD0143-DC5B-4FE2-AA87-A08A0123886C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14713324" y="20349883"/>
+          <a:ext cx="1876190" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1938617</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1341446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A3763C-E5B4-4C26-BD8D-9AC23BC30072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14724529" y="21997146"/>
+          <a:ext cx="1602441" cy="1218182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1927411</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1280624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E3CB6D-B31F-4522-98D2-4D6BAE224C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14735735" y="23386677"/>
+          <a:ext cx="1580029" cy="1190976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4034118</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2236318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F3AE72-B42A-4E90-AF38-A9A1E78C1185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14567648" y="13391030"/>
+          <a:ext cx="3854823" cy="2191494"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -543,9 +817,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -583,7 +857,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -689,7 +963,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -839,28 +1113,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB72EFB0-489B-4DB4-AAD7-EE084CBB2177}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="64.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -898,7 +1172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="204" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -934,7 +1208,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="199.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="199.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -970,7 +1244,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="179.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="179.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1006,7 +1280,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1042,7 +1316,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="275.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1078,7 +1352,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1114,11 +1388,13 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1130,6 +1406,14 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
+    <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" ht="111.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/bug_report.xlsx
+++ b/bug_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iryna_Orlivska\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718F3421-1CBB-45F2-9A5A-9988DE8386CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00110D6A-57CF-4527-9F12-038C0AC5D884}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="930" windowWidth="21600" windowHeight="14040" xr2:uid="{544896CE-C548-43CB-A391-847B6D88F2A3}"/>
+    <workbookView xWindow="17325" yWindow="3570" windowWidth="21600" windowHeight="14040" xr2:uid="{544896CE-C548-43CB-A391-847B6D88F2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug report" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
   <si>
     <t>BugID</t>
   </si>
@@ -63,15 +63,6 @@
     <t>Enviroment</t>
   </si>
   <si>
-    <t xml:space="preserve">Wrong sorting words descending </t>
-  </si>
-  <si>
-    <t>Alphabetical sorting</t>
-  </si>
-  <si>
-    <t>Non-alphabetical sorting</t>
-  </si>
-  <si>
     <t>"ListBoxer"</t>
   </si>
   <si>
@@ -87,33 +78,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Wrong sorting numeric ascending</t>
-  </si>
-  <si>
-    <t>Alphabetical entries in the list are displayed incorrectly if you select a sort in descending order.</t>
-  </si>
-  <si>
-    <t>Numeric entries in the list are displayed incorrectly if you select a sort in descending order.</t>
-  </si>
-  <si>
-    <t>Ascending sorting</t>
-  </si>
-  <si>
-    <t>Non-ascending sorting</t>
-  </si>
-  <si>
-    <t>Wrong sorting numeric descending</t>
-  </si>
-  <si>
-    <t>Numeric entries in the list are displayed incorrectly if you select a sort in ascending order.</t>
-  </si>
-  <si>
-    <t>Descending sorting</t>
-  </si>
-  <si>
-    <t>Non-descending sorting</t>
-  </si>
-  <si>
     <t>Empty fields are added</t>
   </si>
   <si>
@@ -123,33 +87,12 @@
     <t>Cannot enter an empty string</t>
   </si>
   <si>
-    <t>Empty line added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click the "Add to list" button </t>
-  </si>
-  <si>
     <t>Build number 1.89</t>
   </si>
   <si>
-    <t>Help file does not open</t>
-  </si>
-  <si>
     <t>Redirects to a page in the web browser with error information when viewing application help</t>
   </si>
   <si>
-    <t>Menu "Contents" Allows you to open the help file.</t>
-  </si>
-  <si>
-    <t>The “Contents” menu does not open the help file.</t>
-  </si>
-  <si>
-    <t>1. Click on menu "Help"                2. Choose "Contents"</t>
-  </si>
-  <si>
-    <t>Wrong numeric added</t>
-  </si>
-  <si>
     <t>When you enter the number 10,000, the system adds it to the list.</t>
   </si>
   <si>
@@ -159,29 +102,161 @@
     <t>The system added 10,000 to the list.</t>
   </si>
   <si>
-    <t>1. Choose symols "Numeric"       2. Write number 10000               3. Click "Add to list" button</t>
-  </si>
-  <si>
-    <t>1. Add to list records/open file  2. Choose symbols "Numeric"                 3. Choose range "All"                 4. Choose sort order "Descending"                                       5. View list</t>
-  </si>
-  <si>
-    <t>1. Add to list records/open file  2. Choose symbols "Numeric"                 3. Choose range "All"                 4. Choose sort order "Ascending"                                       5. View list</t>
-  </si>
-  <si>
-    <t>1. Add to list records/open file     2. Choose symbols "Alphabetic"                        3. Choose range "All"                 4. Choose sort order "Descending"                                    5. View list</t>
-  </si>
-  <si>
-    <t>нет выбора на создания папки</t>
-  </si>
-  <si>
-    <t>опечатка</t>
+    <t xml:space="preserve">Misprint in the menu "Edit" </t>
+  </si>
+  <si>
+    <t>Alphabetical entries in the list are displayed incorrectly when select a sort in descending order.</t>
+  </si>
+  <si>
+    <t>Numeric entries in the list are displayed incorrectly when select a sort in descending order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong alphabetical sorting words descending </t>
+  </si>
+  <si>
+    <t>Wrong ascending sorting numeric ascending</t>
+  </si>
+  <si>
+    <t>Wrong ascending sorting numeric descending</t>
+  </si>
+  <si>
+    <t>The menu “Contents”  does not open the help file.</t>
+  </si>
+  <si>
+    <t>The menu "Contents" Allows you to open the help file.</t>
+  </si>
+  <si>
+    <t>1. Click on the menu "Help"                2. Choose the menu "Contents"</t>
+  </si>
+  <si>
+    <t>1. Add to the list records/open file  2. Choose the symbols "Numeric"                                      3. Choose the range "All"                  4. Choose the sort order "Ascending"                                          5. Look at the list</t>
+  </si>
+  <si>
+    <t>1. Click the button "Add to list"        2. Look at the list</t>
+  </si>
+  <si>
+    <t>Alphabetical word sorting</t>
+  </si>
+  <si>
+    <t>Wrong descending sorting numeric descending</t>
+  </si>
+  <si>
+    <t>Numeric entries in the list are displayed incorrectly when select  a sort in ascending order.</t>
+  </si>
+  <si>
+    <t>Sort numeric ascending</t>
+  </si>
+  <si>
+    <t>Sort numeric descending</t>
+  </si>
+  <si>
+    <t>There is a choice to create a new folder when selecting a directory</t>
+  </si>
+  <si>
+    <t>There is no choice to create a new folder when selecting a directory</t>
+  </si>
+  <si>
+    <t>When installing app and choice a directory missing choice create the new folder</t>
+  </si>
+  <si>
+    <t>1. Choose the symols "Numeric"         2. Write number 10000                   3. Click the button"Add to list"</t>
+  </si>
+  <si>
+    <t>1. Add to list records/open file        2. Choose the symbols "Numeric"                 3. Choose the range "All"                          4. Choose the sort order "Descending"                                       5. Look at the list</t>
+  </si>
+  <si>
+    <t>1. Add to list records/open file        2. Choose the symbols "Alphabetic"                                          3. Choose the range "All"                          4. Choose the sort order "Descending"                                     5. Look at the list</t>
+  </si>
+  <si>
+    <t>1. Launch installer "setup.exe"      2. Click "Ok"                                         3. Choose "Change Directory"</t>
+  </si>
+  <si>
+    <t>In the menu "Edit" present misprint in the form of a single letter</t>
+  </si>
+  <si>
+    <t>Correct name the menu "Edit"</t>
+  </si>
+  <si>
+    <t>1. Look at the menu "Edit"</t>
+  </si>
+  <si>
+    <t>The operation "Cut" isn`t active in the menu "Edit"</t>
+  </si>
+  <si>
+    <t>The operation "Cut" is active in the menu "Edit"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the menu "Edit" can`t choise the operation "Cut" so that cut </t>
+  </si>
+  <si>
+    <t>1. Look at the menu "Edit"                 2. Click the operation "Cut"</t>
+  </si>
+  <si>
+    <t>The operation "Copy" isn`t active in the menu "Edit"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the menu "Edit" can`t choise the operation "Copy" so that cut </t>
+  </si>
+  <si>
+    <t>The operation "Copy" is active in the menu "Edit"</t>
+  </si>
+  <si>
+    <t>1. Look at the menu "Edit"                 2. Click the operation "Copy"</t>
+  </si>
+  <si>
+    <t>The operation "Paste" isn`t active in the menu "Edit"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the menu "Edit" can`t choise the operation "Paste" so that cut </t>
+  </si>
+  <si>
+    <t>The operation "Paste" is active in the menu "Edit"</t>
+  </si>
+  <si>
+    <t>1. Look at the menu "Edit"                 2. Click the operation "Paste"</t>
+  </si>
+  <si>
+    <t>There is no possibility to delete one entry in the list</t>
+  </si>
+  <si>
+    <t>When adding one record to the list there is no possibility to clear the entire list.</t>
+  </si>
+  <si>
+    <t>Ability to clear the field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter list  one record                      2. Click the button "Clear list"         </t>
+  </si>
+  <si>
+    <t>Missing the button "Minimize screen"</t>
+  </si>
+  <si>
+    <t>User no opportunity minimize screen</t>
+  </si>
+  <si>
+    <t>The  button "Minimize screen" present</t>
+  </si>
+  <si>
+    <t>1. Look at the panel</t>
+  </si>
+  <si>
+    <t>No hint about saving the file when closing the application</t>
+  </si>
+  <si>
+    <t>A hint about saving the file when closing the application</t>
+  </si>
+  <si>
+    <t>With edited entries, clicking close the application does not pop up a prompt about saving the file</t>
+  </si>
+  <si>
+    <t>1. Open file                          2. Edit post                           3. Close app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +264,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,11 +295,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -284,54 +366,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>968030</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E5BE9E-BE98-49CE-BDCF-096B0E941952}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="31437" t="28217" r="42517" b="48142"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21459265" y="16719177"/>
-          <a:ext cx="4112559" cy="2099824"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>212912</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -357,7 +391,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect l="36892" t="26801" r="36941" b="42149"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -400,7 +434,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -444,7 +478,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -488,7 +522,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -532,7 +566,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -576,7 +610,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -620,7 +654,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -664,7 +698,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -708,7 +742,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -752,7 +786,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -796,7 +830,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -805,6 +839,94 @@
         <a:xfrm>
           <a:off x="14567648" y="13391030"/>
           <a:ext cx="3854823" cy="2191494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3968942</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2364441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084962F0-E303-4947-B642-21EB1450C772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14825383" y="24821029"/>
+          <a:ext cx="3845677" cy="2207559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>258537</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3810001</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2056624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03674585-81D9-44CF-92AD-58AC40C233E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14967858" y="27187072"/>
+          <a:ext cx="3551464" cy="2029409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,309 +1235,572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB72EFB0-489B-4DB4-AAD7-EE084CBB2177}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="64.5703125" customWidth="1"/>
+    <col min="12" max="12" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="199.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1"/>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="179.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1"/>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1"/>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="275.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="1"/>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="1"/>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:12" ht="111.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bug_report.xlsx
+++ b/bug_report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iryna_Orlivska\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iryna_Orlivska\,homework\4.Bug_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00110D6A-57CF-4527-9F12-038C0AC5D884}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEB7841-399D-4A4C-BE24-329E658300A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17325" yWindow="3570" windowWidth="21600" windowHeight="14040" xr2:uid="{544896CE-C548-43CB-A391-847B6D88F2A3}"/>
+    <workbookView xWindow="5325" yWindow="900" windowWidth="21600" windowHeight="14040" xr2:uid="{544896CE-C548-43CB-A391-847B6D88F2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug report" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="82">
   <si>
     <t>BugID</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Empty fields are added</t>
-  </si>
-  <si>
     <t>Without entering any information by pressing the enter button, an empty line is added.</t>
   </si>
   <si>
@@ -111,36 +108,12 @@
     <t>Numeric entries in the list are displayed incorrectly when select a sort in descending order.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wrong alphabetical sorting words descending </t>
-  </si>
-  <si>
-    <t>Wrong ascending sorting numeric ascending</t>
-  </si>
-  <si>
-    <t>Wrong ascending sorting numeric descending</t>
-  </si>
-  <si>
-    <t>The menu “Contents”  does not open the help file.</t>
-  </si>
-  <si>
     <t>The menu "Contents" Allows you to open the help file.</t>
   </si>
   <si>
-    <t>1. Click on the menu "Help"                2. Choose the menu "Contents"</t>
-  </si>
-  <si>
-    <t>1. Add to the list records/open file  2. Choose the symbols "Numeric"                                      3. Choose the range "All"                  4. Choose the sort order "Ascending"                                          5. Look at the list</t>
-  </si>
-  <si>
-    <t>1. Click the button "Add to list"        2. Look at the list</t>
-  </si>
-  <si>
     <t>Alphabetical word sorting</t>
   </si>
   <si>
-    <t>Wrong descending sorting numeric descending</t>
-  </si>
-  <si>
     <t>Numeric entries in the list are displayed incorrectly when select  a sort in ascending order.</t>
   </si>
   <si>
@@ -159,18 +132,6 @@
     <t>When installing app and choice a directory missing choice create the new folder</t>
   </si>
   <si>
-    <t>1. Choose the symols "Numeric"         2. Write number 10000                   3. Click the button"Add to list"</t>
-  </si>
-  <si>
-    <t>1. Add to list records/open file        2. Choose the symbols "Numeric"                 3. Choose the range "All"                          4. Choose the sort order "Descending"                                       5. Look at the list</t>
-  </si>
-  <si>
-    <t>1. Add to list records/open file        2. Choose the symbols "Alphabetic"                                          3. Choose the range "All"                          4. Choose the sort order "Descending"                                     5. Look at the list</t>
-  </si>
-  <si>
-    <t>1. Launch installer "setup.exe"      2. Click "Ok"                                         3. Choose "Change Directory"</t>
-  </si>
-  <si>
     <t>In the menu "Edit" present misprint in the form of a single letter</t>
   </si>
   <si>
@@ -180,57 +141,30 @@
     <t>1. Look at the menu "Edit"</t>
   </si>
   <si>
-    <t>The operation "Cut" isn`t active in the menu "Edit"</t>
-  </si>
-  <si>
     <t>The operation "Cut" is active in the menu "Edit"</t>
   </si>
   <si>
     <t xml:space="preserve">In the menu "Edit" can`t choise the operation "Cut" so that cut </t>
   </si>
   <si>
-    <t>1. Look at the menu "Edit"                 2. Click the operation "Cut"</t>
-  </si>
-  <si>
-    <t>The operation "Copy" isn`t active in the menu "Edit"</t>
-  </si>
-  <si>
     <t xml:space="preserve">In the menu "Edit" can`t choise the operation "Copy" so that cut </t>
   </si>
   <si>
     <t>The operation "Copy" is active in the menu "Edit"</t>
   </si>
   <si>
-    <t>1. Look at the menu "Edit"                 2. Click the operation "Copy"</t>
-  </si>
-  <si>
-    <t>The operation "Paste" isn`t active in the menu "Edit"</t>
-  </si>
-  <si>
     <t xml:space="preserve">In the menu "Edit" can`t choise the operation "Paste" so that cut </t>
   </si>
   <si>
     <t>The operation "Paste" is active in the menu "Edit"</t>
   </si>
   <si>
-    <t>1. Look at the menu "Edit"                 2. Click the operation "Paste"</t>
-  </si>
-  <si>
-    <t>There is no possibility to delete one entry in the list</t>
-  </si>
-  <si>
     <t>When adding one record to the list there is no possibility to clear the entire list.</t>
   </si>
   <si>
     <t>Ability to clear the field</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Enter list  one record                      2. Click the button "Clear list"         </t>
-  </si>
-  <si>
-    <t>Missing the button "Minimize screen"</t>
-  </si>
-  <si>
     <t>User no opportunity minimize screen</t>
   </si>
   <si>
@@ -249,7 +183,125 @@
     <t>With edited entries, clicking close the application does not pop up a prompt about saving the file</t>
   </si>
   <si>
-    <t>1. Open file                          2. Edit post                           3. Close app</t>
+    <t>Incorrectly sort words when selected "Descending"</t>
+  </si>
+  <si>
+    <t>Incorrectly sort numerics  when selected "Descending"</t>
+  </si>
+  <si>
+    <t>Incorrectly sort numerics  when selected "Ascending"</t>
+  </si>
+  <si>
+    <t>Added empty fields to the list when you click "Add to list"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not open the help file in the menu “Contents” </t>
+  </si>
+  <si>
+    <t>Isn't active the operation "Cut"  in the menu "Edit"</t>
+  </si>
+  <si>
+    <t>Isn't active the operation "Copy"  in the menu "Edit"</t>
+  </si>
+  <si>
+    <t>Isn't active the operation "Paste"  in the menu "Edit"</t>
+  </si>
+  <si>
+    <t>The "Clear list" button on the panel isn`t active when adding one record</t>
+  </si>
+  <si>
+    <t>Missing the button "Minimize screen" on panel</t>
+  </si>
+  <si>
+    <t>Added empty field when opening an empty file</t>
+  </si>
+  <si>
+    <t>When you save an empty file and after opening it, one empty field appears in the list.</t>
+  </si>
+  <si>
+    <t>Opening empty file</t>
+  </si>
+  <si>
+    <t>The app is closed with the edited unsaved file on the tooltip when click the button "Cancel"</t>
+  </si>
+  <si>
+    <t>When click the button "Exit" in the menu "File" edited unsaved file on the tooltip when click the button "Cancel"</t>
+  </si>
+  <si>
+    <t>The app doesn`t close</t>
+  </si>
+  <si>
+    <t>1. Add to list records/open file        
+2. Choose the symbols "Alphabetic"      
+3. Choose the range "All"         
+4. Choose the sort order "Descending"             
+5. Look at the list</t>
+  </si>
+  <si>
+    <t>1. Add to the list records/open file  
+2. Choose the symbols "Numeric"                                      
+3. Choose the range "All"                  
+4. Choose the sort order "Ascending"                                          
+5. Look at the list</t>
+  </si>
+  <si>
+    <t>1. Add to list records/open file        
+2. Choose the symbols "Numeric"                 
+3. Choose the range "All"                          
+4. Choose the sort order "Descending"                                       
+5. Look at the list</t>
+  </si>
+  <si>
+    <t>1. Launch installer "setup.exe"      
+2. Click "Ok"                                         
+3. Choose "Change Directory"</t>
+  </si>
+  <si>
+    <t>1. Look at the menu "Edit"                 
+2. Click the operation "Cut"</t>
+  </si>
+  <si>
+    <t>1. Look at the menu "Edit"                 
+2. Click the operation "Copy"</t>
+  </si>
+  <si>
+    <t>1. Look at the menu "Edit"                 
+2. Click the operation "Paste"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter list  one record                      
+2. Click the button "Clear list"         </t>
+  </si>
+  <si>
+    <t>1. Open file                          
+2. Edit post                           
+3. Close app</t>
+  </si>
+  <si>
+    <t>1. Save empty file                 
+2. Open empty file                
+3. Look at the list                
+4. Look at the "Total records"</t>
+  </si>
+  <si>
+    <t>1. Open the file                         
+2. Edit the file                     
+3. Click the menu "File"       
+4. Click the menu "Exit"       
+5. On the tooltip click the button "Cancel"</t>
+  </si>
+  <si>
+    <t>1. Click the button "Add to list"        
+2. Look at the list</t>
+  </si>
+  <si>
+    <t>1. Click on the menu "Help"                
+2. Choose the menu "Contents"</t>
+  </si>
+  <si>
+    <t>1. Choose the symols "Numeric"        
+2. Write number 10000                   
+3. Click the button"Add to list"</t>
   </si>
 </sst>
 </file>
@@ -299,7 +351,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,6 +979,50 @@
         <a:xfrm>
           <a:off x="14967858" y="27187072"/>
           <a:ext cx="3551464" cy="2029409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4942881</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2978249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF3B367-A31C-46D6-A98F-D69A307F2BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14967857" y="30466392"/>
+          <a:ext cx="4752381" cy="2828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1235,62 +1331,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB72EFB0-489B-4DB4-AAD7-EE084CBB2177}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="62.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="79.28515625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1298,505 +1395,577 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="199.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="179.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="275.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
